--- a/LIGA 24_25.xlsx
+++ b/LIGA 24_25.xlsx
@@ -1,20 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unexes-my.sharepoint.com/personal/rvicenteg_alumnos_unex_es/Documents/UNIVERSIDAD/.resto/liga_futbol/Liga-de-Futbol-CUMe/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_EFB563A49624AB12DAFE55F9D9AA48D265CF9A41" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16B33138-535B-4480-912A-22C0B9838F83}"/>
+  <bookViews>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="9970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="JORNADAS" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="CLASIFICACION" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="GOLEADORES" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="INSCRIPCIONES" sheetId="4" r:id="rId7"/>
+    <sheet name="JORNADAS" sheetId="1" r:id="rId1"/>
+    <sheet name="CLASIFICACION" sheetId="2" r:id="rId2"/>
+    <sheet name="ESTADÍSTICAS" sheetId="6" r:id="rId3"/>
+    <sheet name="GOLEADORES" sheetId="3" r:id="rId4"/>
+    <sheet name="INSCRIPCIONES" sheetId="4" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CLASIFICACION!$B$1:$J$8</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="257">
   <si>
     <t>Equipo Local</t>
   </si>
@@ -769,134 +795,173 @@
   </si>
   <si>
     <t>cborjava@alumnos.unex.es</t>
+  </si>
+  <si>
+    <t>CUM UNITED</t>
+  </si>
+  <si>
+    <t>FACHATINAIKOS</t>
+  </si>
+  <si>
+    <t>UNIÓN DEPORTIVA PORRETA</t>
+  </si>
+  <si>
+    <t>I.E. SALA</t>
+  </si>
+  <si>
+    <t>ROYAL EMÉRITA</t>
+  </si>
+  <si>
+    <t>LOS CHICHOS FC</t>
+  </si>
+  <si>
+    <t>CABLE PELAO FC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="d/MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="H:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <strike/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -904,7 +969,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -992,268 +1057,173 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="75">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1443,28 +1413,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="3" max="3" width="17.0"/>
-    <col customWidth="1" min="4" max="4" width="19.38"/>
-    <col customWidth="1" min="5" max="5" width="17.88"/>
-    <col customWidth="1" min="6" max="6" width="19.25"/>
-    <col customWidth="1" min="9" max="9" width="35.0"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="9" max="9" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1491,85 +1464,85 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="8">
-        <v>45574.0</v>
+        <v>45574</v>
       </c>
       <c r="H2" s="9">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8">
-        <v>45581.0</v>
+        <v>45581</v>
       </c>
       <c r="H3" s="9">
-        <v>0.8541666666666666</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="8">
-        <v>45581.0</v>
+        <v>45581</v>
       </c>
       <c r="H4" s="9">
         <v>0.6875</v>
@@ -1578,56 +1551,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="12">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="H5" s="9">
-        <v>0.8541666666666666</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="H6" s="9">
         <v>0.8125</v>
@@ -1636,27 +1609,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="12">
-        <v>45588.0</v>
+        <v>45588</v>
       </c>
       <c r="H7" s="9">
         <v>0.75</v>
@@ -1665,27 +1638,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="12">
-        <v>45594.0</v>
+        <v>45594</v>
       </c>
       <c r="H8" s="9">
         <v>0.875</v>
@@ -1694,56 +1667,56 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="12">
-        <v>45600.0</v>
+        <v>45600</v>
       </c>
       <c r="H9" s="9">
-        <v>0.7708333333333334</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="12">
-        <v>45595.0</v>
+        <v>45595</v>
       </c>
       <c r="H10" s="9">
         <v>0.875</v>
@@ -1752,268 +1725,268 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="15">
-        <v>45614.0</v>
+        <v>45614</v>
       </c>
       <c r="H11" s="9">
-        <v>0.8541666666666666</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="16">
-        <v>45609.0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0.7291666666666666</v>
+        <v>45609</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.72916666666666663</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="16">
-        <v>45602.0</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0.8958333333333334</v>
+        <v>45602</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.89583333333333337</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="B14" s="18" t="s">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>5</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
       <c r="I14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>5</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16">
-      <c r="A16" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>5</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="12">
-        <v>45616.0</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0.8541666666666666</v>
+        <v>45616</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.85416666666666663</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>6</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>6</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="12">
-        <v>45645.0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0.7708333333333334</v>
+        <v>45645</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.77083333333333337</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="B19" s="21" t="s">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="D19" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="16">
-        <v>45623.0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0.8541666666666666</v>
+        <v>45623</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.85416666666666663</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>7</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D20" s="22" t="s">
         <v>10</v>
       </c>
+      <c r="D20" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="E20" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="8">
-        <v>45630.0</v>
+        <v>45630</v>
       </c>
       <c r="H20" s="9">
         <v>0.875</v>
@@ -2022,497 +1995,500 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="B21" s="22" t="s">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>7</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="8">
-        <v>45630.0</v>
+        <v>45630</v>
       </c>
       <c r="H21" s="9">
-        <v>0.8958333333333334</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="22">
-        <v>7.0</v>
-      </c>
-      <c r="B22" s="22" t="s">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>7</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="B23" s="23" t="s">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>8</v>
       </c>
-      <c r="C23" s="24">
-        <v>14.0</v>
-      </c>
-      <c r="D23" s="23" t="s">
+      <c r="B23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="23">
+        <v>14</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="26">
-        <v>45713.0</v>
-      </c>
-      <c r="H23" s="27">
-        <v>0.8541666666666666</v>
-      </c>
-      <c r="I23" s="28" t="s">
+      <c r="G23" s="25">
+        <v>45713</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="29">
-        <v>45715.0</v>
-      </c>
-      <c r="H24" s="30">
+      <c r="G24" s="28">
+        <v>45715</v>
+      </c>
+      <c r="H24" s="29">
         <v>0.75</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="29">
-        <v>45714.0</v>
-      </c>
-      <c r="H25" s="17">
+      <c r="G25" s="28">
+        <v>45714</v>
+      </c>
+      <c r="H25" s="9">
         <v>0.8125</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="29">
-        <v>45733.0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0.7708333333333334</v>
+      <c r="G26" s="28">
+        <v>45733</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.77083333333333337</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="29">
-        <v>45727.0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0.8541666666666666</v>
+      <c r="G27" s="28">
+        <v>45727</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.85416666666666663</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="29">
-        <v>45733.0</v>
-      </c>
-      <c r="H28" s="17">
+      <c r="G28" s="28">
+        <v>45733</v>
+      </c>
+      <c r="H28" s="9">
         <v>0.875</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="29">
-        <v>45740.0</v>
-      </c>
-      <c r="H29" s="17">
-        <v>0.7291666666666666</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="G29" s="28">
+        <v>45740</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="29">
-        <v>45741.0</v>
-      </c>
-      <c r="H30" s="17">
+      <c r="G30" s="28">
+        <v>45741</v>
+      </c>
+      <c r="H30" s="9">
         <v>0.875</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="29">
-        <v>45735.0</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0.8333333333333334</v>
+      <c r="G31" s="28">
+        <v>45735</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.83333333333333337</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C34" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="18">
-        <v>12.0</v>
-      </c>
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>12</v>
       </c>
+      <c r="B35" s="17" t="s">
+        <v>12</v>
+      </c>
       <c r="C35" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="D35" s="18" t="s">
         <v>8</v>
       </c>
+      <c r="D35" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="E35" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="18">
-        <v>12.0</v>
-      </c>
-      <c r="B36" s="18" t="s">
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>12</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="D36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="18">
-        <v>12.0</v>
-      </c>
-      <c r="B37" s="18" t="s">
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>12</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="D37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="21"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="21"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
     </row>
-    <row r="41">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
     </row>
-    <row r="43">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="22"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>38</v>
       </c>
@@ -2541,1788 +2517,1814 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="C2" s="10">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D2" s="10">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E2" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F2" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="10">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="I2" s="10">
-        <v>36.0</v>
-      </c>
-      <c r="J2" s="31">
-        <f t="shared" ref="J2:J8" si="1">H2-I2</f>
+        <v>36</v>
+      </c>
+      <c r="J2" s="10">
+        <f t="shared" ref="J2:J8" si="0">H2-I2</f>
         <v>38</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="10">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10">
+        <v>8</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3</v>
+      </c>
+      <c r="H3" s="10">
+        <v>70</v>
+      </c>
+      <c r="I3" s="10">
+        <v>37</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="10">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>57</v>
+      </c>
+      <c r="I4" s="10">
+        <v>46</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="18">
+        <v>19</v>
+      </c>
+      <c r="D5" s="18">
+        <v>11</v>
+      </c>
+      <c r="E5" s="18">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>4</v>
+      </c>
+      <c r="H5" s="18">
+        <v>56</v>
+      </c>
+      <c r="I5" s="18">
+        <v>59</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="10">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>6</v>
+      </c>
+      <c r="H6" s="10">
+        <v>38</v>
+      </c>
+      <c r="I6" s="10">
+        <v>58</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="10">
+        <v>6</v>
+      </c>
+      <c r="D7" s="30">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
         <v>9</v>
       </c>
-      <c r="C3" s="10">
-        <v>24.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>70.0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>37.0</v>
-      </c>
-      <c r="J3" s="31">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10">
-        <v>18.0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>57.0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>46.0</v>
-      </c>
-      <c r="J4" s="31">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="32">
-        <v>19.0</v>
-      </c>
-      <c r="D5" s="32">
-        <v>11.0</v>
-      </c>
-      <c r="E5" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="F5" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="H5" s="32">
-        <v>56.0</v>
-      </c>
-      <c r="I5" s="32">
-        <v>59.0</v>
-      </c>
-      <c r="J5" s="19">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>15.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>38.0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>58.0</v>
-      </c>
-      <c r="J6" s="31">
-        <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>11.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>9.0</v>
-      </c>
       <c r="H7" s="10">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="I7" s="10">
-        <v>99.0</v>
-      </c>
-      <c r="J7" s="31">
-        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
         <v>-50</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="35">
-        <v>6.0</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="21">
-        <v>6.0</v>
-      </c>
-      <c r="H8" s="21">
-        <v>9.0</v>
-      </c>
-      <c r="I8" s="21">
-        <v>28.0</v>
-      </c>
-      <c r="J8" s="36">
-        <f t="shared" si="1"/>
+    <row r="8" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>6</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>6</v>
+      </c>
+      <c r="H8" s="20">
+        <v>9</v>
+      </c>
+      <c r="I8" s="20">
+        <v>28</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
         <v>-19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="M14" s="32"/>
-    </row>
-    <row r="15">
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="18">
+      <c r="M15" s="18"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="B1:J8" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA8FCA0-F166-4378-992D-6679C9F33675}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.25"/>
-    <col customWidth="1" min="2" max="2" width="25.38"/>
-    <col customWidth="1" min="4" max="4" width="14.75"/>
-    <col customWidth="1" min="5" max="5" width="14.38"/>
+    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>47</v>
       </c>
+      <c r="C1" s="10">
+        <v>50</v>
+      </c>
+      <c r="D1" s="10">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" s="10">
-        <v>50.0</v>
+        <v>20</v>
       </c>
       <c r="D2" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="10">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10">
+        <v>14</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="10">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="10">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="10">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="10">
         <v>12</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="10">
-        <v>20.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10">
-        <v>16.0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="39" t="s">
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="10">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="10">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="10">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10">
-        <v>14.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="39" t="s">
+      <c r="B17" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="10">
+        <v>7</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="10">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="10">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="10">
+        <v>5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="10">
-        <v>13.0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="42" t="s">
+      <c r="B23" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="10">
+        <v>4</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="10">
-        <v>13.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="B30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="10">
+        <v>4</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="10">
-        <v>13.0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="10">
-        <v>13.0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10">
-        <v>13.0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="42" t="s">
+      <c r="B39" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="42" t="s">
+      <c r="B45" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>93</v>
+      <c r="B47" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="C47" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E47" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>94</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="C48" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E48" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F48" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="52" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="C49" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="C50" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51">
-      <c r="A51" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>97</v>
+    <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>98</v>
       </c>
       <c r="C51" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52">
-      <c r="A52" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>98</v>
+    <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="C52" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="C53" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E53" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>101</v>
       </c>
       <c r="C54" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E54" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F54" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="20">
+        <v>0</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0</v>
+      </c>
+      <c r="F55" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="10">
+        <v>0</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0</v>
+      </c>
+      <c r="E58" s="10">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="10">
+        <v>0</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+    </row>
+    <row r="61" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D55" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F55" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D56" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="E56" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F56" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F57" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D58" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E58" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F58" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F59" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="F60" s="10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="55" t="s">
+      <c r="B61" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="43" t="s">
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B62" s="47" t="s">
         <v>108</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64">
-      <c r="A64" s="43" t="s">
+    <row r="64" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="51" t="s">
-        <v>109</v>
+      <c r="B64" s="47" t="s">
+        <v>110</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65">
-      <c r="A65" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>110</v>
-      </c>
+    <row r="65" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66">
-      <c r="A66" s="37"/>
-      <c r="B66" s="38"/>
+    <row r="66" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67">
-      <c r="A67" s="37"/>
-      <c r="B67" s="38"/>
+    <row r="67" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68">
-      <c r="A68" s="37"/>
-      <c r="B68" s="38"/>
+    <row r="68" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
+    <row r="69" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70">
-      <c r="A70" s="37"/>
-      <c r="B70" s="38"/>
+    <row r="70" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71">
-      <c r="A71" s="37"/>
-      <c r="B71" s="38"/>
+    <row r="71" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72">
-      <c r="A72" s="37"/>
-      <c r="B72" s="38"/>
+    <row r="72" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73">
-      <c r="A73" s="37"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="39"/>
-      <c r="B74" s="40"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="37"/>
-      <c r="B75" s="38"/>
+    <row r="73" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
+      <c r="B73" s="36"/>
+    </row>
+    <row r="74" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="33"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76">
-      <c r="A76" s="37"/>
-      <c r="B76" s="38"/>
+    <row r="76" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="33"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
+    <row r="77" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="33"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78">
-      <c r="A78" s="37"/>
-      <c r="B78" s="38"/>
+    <row r="78" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="33"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79">
-      <c r="A79" s="37"/>
-      <c r="B79" s="38"/>
+    <row r="79" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="33"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
+    <row r="80" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="33"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81">
-      <c r="A81" s="37"/>
-      <c r="B81" s="38"/>
+    <row r="81" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="33"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82">
-      <c r="A82" s="37"/>
-      <c r="B82" s="38"/>
+    <row r="82" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A82" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>112</v>
+      </c>
       <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10" t="s">
+      <c r="D82" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E83" s="10" t="s">
+      <c r="E82" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F82" s="10" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="28.75"/>
-    <col customWidth="1" min="4" max="4" width="28.63"/>
-    <col customWidth="1" min="7" max="7" width="14.5"/>
+    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="4" max="4" width="28.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="53" t="s">
         <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="42" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="51" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4">
-      <c r="A4" s="59"/>
-      <c r="B4" s="44" t="s">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="62"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="59"/>
-      <c r="B5" s="38" t="s">
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="62"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="59"/>
-      <c r="B6" s="38" t="s">
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="62"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="59"/>
-      <c r="B7" s="44" t="s">
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="62"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="59"/>
-      <c r="B8" s="32" t="s">
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="62"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="59"/>
-      <c r="B9" s="38" t="s">
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="62"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="65"/>
-      <c r="B10" s="38" t="s">
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="65"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="32" t="s">
+      <c r="E10" s="59"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -4332,146 +4334,146 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="66"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="44"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="66"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="37" t="s">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="38" t="s">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="62"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="65"/>
-      <c r="B16" s="38" t="s">
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="62"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="65"/>
-      <c r="B17" s="38" t="s">
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="62"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="65"/>
-      <c r="B18" s="38" t="s">
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="62"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="65"/>
-      <c r="B19" s="38" t="s">
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="62"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="65"/>
-      <c r="B20" s="38" t="s">
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="62"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="32" t="s">
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="61" t="s">
         <v>157</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="32" t="s">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
         <v>159</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -4481,35 +4483,35 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" s="32" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26">
-      <c r="B26" s="32" t="s">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="61" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" s="32" t="s">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="61" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28">
-      <c r="B28" s="32" t="s">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
         <v>166</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -4519,448 +4521,448 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="32" t="s">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="61" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="32" t="s">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="61" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31">
-      <c r="B31" s="32" t="s">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="32" t="s">
+    <row r="32" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="43" t="s">
+    <row r="33" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="63" t="s">
+      <c r="D34" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="62"/>
-      <c r="B35" s="44" t="s">
+    <row r="35" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="63" t="s">
+      <c r="D35" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="62"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="62"/>
-      <c r="B36" s="38" t="s">
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="62"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="62"/>
-      <c r="B37" s="47" t="s">
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="E37" s="62"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="62"/>
-      <c r="B38" s="32" t="s">
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="58" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="62"/>
-      <c r="B39" s="38" t="s">
+    <row r="39" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="E39" s="62"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="38" t="s">
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="E40" s="62"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="19"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="22" t="s">
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="58" t="s">
         <v>192</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="32" t="s">
+    <row r="43" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B43" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="58" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" s="32" t="s">
+    <row r="44" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="58" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="32" t="s">
+    <row r="45" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="58" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="32" t="s">
+    <row r="46" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="58" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="32" t="s">
+    <row r="47" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="58" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="32" t="s">
+    <row r="48" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="58" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="32" t="s">
+    <row r="49" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="58" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" s="32" t="s">
+    <row r="50" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="36" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="49"/>
-      <c r="B51" s="38" t="s">
+    <row r="51" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="69" t="s">
+      <c r="D51" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="E51" s="38"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="49"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="38"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="70" t="s">
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="64" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="72"/>
-      <c r="B54" s="70" t="s">
+    <row r="54" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="64"/>
+      <c r="B54" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="64" t="s">
         <v>217</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="72"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="72"/>
-      <c r="B55" s="70" t="s">
+      <c r="E54" s="64"/>
+    </row>
+    <row r="55" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="64"/>
+      <c r="B55" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="72"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="72"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="72"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="72"/>
-      <c r="B57" s="70" t="s">
+      <c r="E55" s="64"/>
+    </row>
+    <row r="56" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="64"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="64"/>
+    </row>
+    <row r="57" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="64"/>
+      <c r="B57" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C57" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="71" t="s">
+      <c r="D57" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="E57" s="72"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="72"/>
-      <c r="B58" s="70" t="s">
+      <c r="E57" s="64"/>
+    </row>
+    <row r="58" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="64"/>
+      <c r="B58" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C58" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="D58" s="71" t="s">
+      <c r="D58" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="E58" s="72"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="72"/>
-      <c r="B59" s="70" t="s">
+      <c r="E58" s="64"/>
+    </row>
+    <row r="59" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="D59" s="71" t="s">
+      <c r="D59" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="E59" s="72"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="72"/>
-      <c r="B60" s="70" t="s">
+      <c r="E59" s="64"/>
+    </row>
+    <row r="60" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="64"/>
+      <c r="B60" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="E60" s="72"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="19"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="39" t="s">
+      <c r="E60" s="64"/>
+    </row>
+    <row r="61" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B61" s="18"/>
+    </row>
+    <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="67" t="s">
         <v>229</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="68" t="s">
         <v>230</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="76"/>
-      <c r="B63" s="41" t="s">
+    <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="74" t="s">
+      <c r="C63" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="75" t="s">
+      <c r="D63" s="68" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="76"/>
-      <c r="B64" s="41" t="s">
+    <row r="64" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="77" t="s">
+      <c r="C64" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="D64" s="78" t="s">
+      <c r="D64" s="70" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="76"/>
-      <c r="B65" s="41" t="s">
+    <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="67" t="s">
         <v>237</v>
       </c>
-      <c r="D65" s="79" t="s">
+      <c r="D65" s="71" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="76"/>
-      <c r="B66" s="41" t="s">
+    <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="80" t="s">
+      <c r="C66" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="D66" s="79" t="s">
+      <c r="D66" s="71" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="76"/>
-      <c r="B67" s="32" t="s">
+    <row r="67" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C67" s="13" t="s">
@@ -4970,106 +4972,106 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" s="41" t="s">
+    <row r="68" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="C68" s="80" t="s">
+      <c r="C68" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="D68" s="80" t="s">
+      <c r="D68" s="72" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D69" s="64" t="s">
+      <c r="D69" s="58" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="70">
-      <c r="B70" s="38" t="s">
+    <row r="70" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B70" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="D70" s="63" t="s">
+      <c r="D70" s="57" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" s="38" t="s">
+    <row r="71" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B71" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="57" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3"/>
-    <hyperlink r:id="rId2" ref="D4"/>
-    <hyperlink r:id="rId3" ref="D5"/>
-    <hyperlink r:id="rId4" ref="D6"/>
-    <hyperlink r:id="rId5" ref="D7"/>
-    <hyperlink r:id="rId6" ref="D8"/>
-    <hyperlink r:id="rId7" ref="D9"/>
-    <hyperlink r:id="rId8" ref="D10"/>
-    <hyperlink r:id="rId9" ref="D14"/>
-    <hyperlink r:id="rId10" ref="D15"/>
-    <hyperlink r:id="rId11" ref="D16"/>
-    <hyperlink r:id="rId12" ref="D17"/>
-    <hyperlink r:id="rId13" ref="D18"/>
-    <hyperlink r:id="rId14" ref="D19"/>
-    <hyperlink r:id="rId15" ref="D20"/>
-    <hyperlink r:id="rId16" ref="D23"/>
-    <hyperlink r:id="rId17" ref="D26"/>
-    <hyperlink r:id="rId18" ref="D27"/>
-    <hyperlink r:id="rId19" ref="D29"/>
-    <hyperlink r:id="rId20" ref="D30"/>
-    <hyperlink r:id="rId21" ref="D31"/>
-    <hyperlink r:id="rId22" ref="D34"/>
-    <hyperlink r:id="rId23" ref="D35"/>
-    <hyperlink r:id="rId24" ref="D36"/>
-    <hyperlink r:id="rId25" ref="D37"/>
-    <hyperlink r:id="rId26" ref="D38"/>
-    <hyperlink r:id="rId27" ref="D39"/>
-    <hyperlink r:id="rId28" ref="D40"/>
-    <hyperlink r:id="rId29" ref="D42"/>
-    <hyperlink r:id="rId30" ref="D43"/>
-    <hyperlink r:id="rId31" ref="D44"/>
-    <hyperlink r:id="rId32" ref="D45"/>
-    <hyperlink r:id="rId33" ref="D46"/>
-    <hyperlink r:id="rId34" ref="D47"/>
-    <hyperlink r:id="rId35" ref="D48"/>
-    <hyperlink r:id="rId36" ref="D49"/>
-    <hyperlink r:id="rId37" ref="D50"/>
-    <hyperlink r:id="rId38" ref="D51"/>
-    <hyperlink r:id="rId39" ref="D53"/>
-    <hyperlink r:id="rId40" ref="D54"/>
-    <hyperlink r:id="rId41" ref="D55"/>
-    <hyperlink r:id="rId42" ref="D57"/>
-    <hyperlink r:id="rId43" ref="D58"/>
-    <hyperlink r:id="rId44" ref="D59"/>
-    <hyperlink r:id="rId45" ref="D60"/>
-    <hyperlink r:id="rId46" ref="D62"/>
-    <hyperlink r:id="rId47" ref="D63"/>
-    <hyperlink r:id="rId48" ref="D64"/>
-    <hyperlink r:id="rId49" ref="D65"/>
-    <hyperlink r:id="rId50" ref="D66"/>
-    <hyperlink r:id="rId51" ref="D69"/>
-    <hyperlink r:id="rId52" ref="D70"/>
-    <hyperlink r:id="rId53" ref="D71"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="D19" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="D20" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="D26" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="D29" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="D30" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="D31" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="D34" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="D35" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="D36" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="D37" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="D38" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="D39" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="D40" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="D42" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="D43" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="D44" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="D45" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="D46" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="D47" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="D48" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="D49" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="D50" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="D51" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="D53" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="D54" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="D55" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="D57" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="D58" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="D59" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="D60" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="D62" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="D63" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="D64" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="D65" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="D69" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="D70" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="D71" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
   </hyperlinks>
-  <drawing r:id="rId54"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>